--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF06C34C-4F2B-4AB0-B535-3C4FC97942F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49275" yWindow="555" windowWidth="16455" windowHeight="14055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Data" sheetId="4" r:id="rId3"/>
+    <sheet name="BFoHPbF" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>Source:</t>
   </si>
@@ -133,23 +134,286 @@
     <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t>Note on Heat Pumps</t>
-  </si>
-  <si>
-    <t>The "electricity" fuel type represents heat pumps.</t>
-  </si>
-  <si>
-    <t>This can be changed by altering dist-heat/EoCtUH.</t>
+    <t>Convert from steam PPH to heating GWth</t>
+  </si>
+  <si>
+    <t>https://portfoliomanager.zendesk.com/hc/en-us/articles/211697437-How-do-I-enter-District-Steam-that-has-been-billed-in-pounds-</t>
+  </si>
+  <si>
+    <t>The International District Energy Assocation maintains good data about the location, size, and attributes of district energy systems across the U.S.</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/profile/paige.davis#!/vizhome/NorthAmericaDistrictEnergySystemMap_Web/DistrictEnergySystems</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Heating (pph)</t>
+  </si>
+  <si>
+    <t>Heating (mmBtu/hr)</t>
+  </si>
+  <si>
+    <t>Heating (GWth)</t>
+  </si>
+  <si>
+    <t>Cooling (tons)</t>
+  </si>
+  <si>
+    <t>CHP (MW)</t>
+  </si>
+  <si>
+    <t>University of Texas El Paso</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>El Paso Community College Transmountain</t>
+  </si>
+  <si>
+    <t>Texas Tech University</t>
+  </si>
+  <si>
+    <t>O'Hair Shutters</t>
+  </si>
+  <si>
+    <t>Airport/Industrial</t>
+  </si>
+  <si>
+    <t>Midwestern State University</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>Tarleton State University</t>
+  </si>
+  <si>
+    <t>University of Texas Arlington</t>
+  </si>
+  <si>
+    <t>Dallas-Fort Worth International Airport</t>
+  </si>
+  <si>
+    <t>North Lake College</t>
+  </si>
+  <si>
+    <t>University of Texas Dallas</t>
+  </si>
+  <si>
+    <t>Richland College</t>
+  </si>
+  <si>
+    <t>Southern Methodist University</t>
+  </si>
+  <si>
+    <t>Parkland Hospital</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>University of Texas Southwestern Medical Center</t>
+  </si>
+  <si>
+    <t>McLennan Community College</t>
+  </si>
+  <si>
+    <t>Baylor University</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin Energy </t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>Austin Energy Mueller Dell Childrens Hospital</t>
+  </si>
+  <si>
+    <t>Austin State Hospital</t>
+  </si>
+  <si>
+    <t>University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>Austin Energy</t>
+  </si>
+  <si>
+    <t>Texas State University</t>
+  </si>
+  <si>
+    <t>St. Philips College</t>
+  </si>
+  <si>
+    <t>San Antonio College</t>
+  </si>
+  <si>
+    <t>San Antonio Water System</t>
+  </si>
+  <si>
+    <t>St. Mary's University</t>
+  </si>
+  <si>
+    <t>University of Texas Health Science Center San Antonio</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University Kingsville</t>
+  </si>
+  <si>
+    <t>Lamar University</t>
+  </si>
+  <si>
+    <t>University of Texas Medical Branch Galveston</t>
+  </si>
+  <si>
+    <t>BP's Helio Plaza</t>
+  </si>
+  <si>
+    <t>Veolia Energy NA Houston</t>
+  </si>
+  <si>
+    <t>Enwave Houston</t>
+  </si>
+  <si>
+    <t>Crescent Real Estate</t>
+  </si>
+  <si>
+    <t>University of Houston</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Baylor College of Medicine</t>
+  </si>
+  <si>
+    <t>Methodist Hospital</t>
+  </si>
+  <si>
+    <t>University of Texas MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Thermal Energy Corporation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The following </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data is copied from the "Texas Data" tab of the "BFoHfC" spreadsheet</t>
+    </r>
+  </si>
+  <si>
+    <t>District Heating Fuel Type</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>https://utilities.tamu.edu/combined-heat-power/</t>
+  </si>
+  <si>
+    <t>https://www.depts.ttu.edu/utilities/chacp/</t>
+  </si>
+  <si>
+    <t>http://www.chptap.org/Data/projects/OHair_Shutters-Project_Profile.pdf</t>
+  </si>
+  <si>
+    <t>https://sustainability.uta.edu/campus-initiatives/carbon-management/</t>
+  </si>
+  <si>
+    <t>http://oaktrust.library.tamu.edu/bitstream/handle/1969.1/128828/ESL-IC-11-10-43.pdf;sequence=1</t>
+  </si>
+  <si>
+    <t>natural gas / biogas</t>
+  </si>
+  <si>
+    <t>http://globalenergyobservatory.org/geoid/2272</t>
+  </si>
+  <si>
+    <t>https://www.districtenergy.org/HigherLogic/System/DownloadDocumentFile.ashx?DocumentFileKey=462d3fa4-1d96-01d1-ebab-69d75f9d4011&amp;forceDialog=0</t>
+  </si>
+  <si>
+    <t>https://www.burnsmcd.com/insightsnews/in-the-news/2010/05/new-parkland-hospital-central-utility-plant-desi__</t>
+  </si>
+  <si>
+    <t>https://www.texastribune.org/2016/11/23/ut-austin-keeps-getting-bigger-its-energy-bills-an/</t>
+  </si>
+  <si>
+    <t>http://www.chptap.org/Data/projects/Dell_Childrens_Medical_Center-Project_Profile.pdf</t>
+  </si>
+  <si>
+    <t>https://archive.epa.gov/region1/healthcare/web/pdf/ushospitalguidebook_111907.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/opendata/qb.php?category=4527</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/opendata/qb.php?category=4651</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/opendata/qb.php?category=1366474</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/opendata/qb.php?category=1232946</t>
+  </si>
+  <si>
+    <t>https://tecothermalenergy.com/news/houston-based-teco-wins-us-epas-energy-star-chp-award/</t>
+  </si>
+  <si>
+    <t>http://www.chptap.org/Data/projects/UTMB-Project_Profile.pdf</t>
+  </si>
+  <si>
+    <t>http://uthscsa.edu/facilities/energymgmt.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was able to find fuel information for over half of the district heating systems in Texas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of these sytems use natural gas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFW airport does use some biogas. </t>
+  </si>
+  <si>
+    <t>So, my assumption is to use 95% natural gas, 5% biogas for the model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +433,19 @@
       <u/>
       <sz val="10"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,7 +481,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,6 +503,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,21 +846,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,74 +870,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -670,17 +938,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -692,7 +962,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2000</v>
       </c>
@@ -715,7 +985,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -741,7 +1011,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -767,7 +1037,7 @@
         <v>12343.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -793,7 +1063,7 @@
         <v>199.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -819,7 +1089,7 @@
         <v>4055.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -845,7 +1115,7 @@
         <v>2641.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -856,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -873,7 +1143,7 @@
         <v>0.63892242256425869</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -890,7 +1160,7 @@
         <v>0.17030120384160674</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -907,7 +1177,7 @@
         <v>3.3910556428748871E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -924,7 +1194,7 @@
         <v>0.15686581716538556</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -943,21 +1213,1394 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E7DB56-2C80-4F30-997F-1BA05DB0D952}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="13">
+        <v>54000</v>
+      </c>
+      <c r="D15" s="13">
+        <f>C15*1194/1000000</f>
+        <v>64.475999999999999</v>
+      </c>
+      <c r="E15" s="15">
+        <f>D15*0.00029</f>
+        <v>1.8698039999999999E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4600</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="13">
+        <v>570960</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:D58" si="0">C16*1194/1000000</f>
+        <v>681.72623999999996</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:E58" si="1">D16*0.00029</f>
+        <v>0.19770060959999999</v>
+      </c>
+      <c r="F16" s="13">
+        <v>19032</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="13">
+        <v>500000</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.17313000000000001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13">
+        <v>120546</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>143.93192400000001</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="1"/>
+        <v>4.1740257960000006E-2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4018</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13">
+        <v>164588</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>196.51807199999999</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6990240879999994E-2</v>
+      </c>
+      <c r="F20" s="13">
+        <v>5486</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="13">
+        <v>178218</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>212.792292</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1709764680000001E-2</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13">
+        <v>549110</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>655.63733999999999</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.1901348286</v>
+      </c>
+      <c r="F22" s="13">
+        <v>18303</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="13">
+        <v>495000</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>591.03</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.17139869999999999</v>
+      </c>
+      <c r="F23" s="13">
+        <v>22000</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13">
+        <v>137970</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>164.73617999999999</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="1"/>
+        <v>4.7773492199999996E-2</v>
+      </c>
+      <c r="F24" s="13">
+        <v>4599</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4577</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>5.4649380000000001</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="1"/>
+        <v>1.5848320200000001E-3</v>
+      </c>
+      <c r="F25" s="13">
+        <v>12500</v>
+      </c>
+      <c r="G25" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="13">
+        <v>135315</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>161.56611000000001</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6854171900000005E-2</v>
+      </c>
+      <c r="F26" s="13">
+        <v>4510</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="13">
+        <v>190000</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>226.86</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="1"/>
+        <v>6.5789399999999998E-2</v>
+      </c>
+      <c r="F27" s="13">
+        <v>12000</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="13">
+        <v>230000</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>274.62</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="1"/>
+        <v>7.9639799999999997E-2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>16500</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="13">
+        <v>87300</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>104.2362</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0228497999999999E-2</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2800</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="13">
+        <v>94575</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>112.92255</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="1"/>
+        <v>3.2747539499999999E-2</v>
+      </c>
+      <c r="F30" s="13">
+        <v>3153</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="13">
+        <v>217273</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>259.42396200000002</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5232948980000006E-2</v>
+      </c>
+      <c r="F31" s="13">
+        <v>7242</v>
+      </c>
+      <c r="G31" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="13">
+        <v>824298</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>984.21181200000001</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.28542142547999999</v>
+      </c>
+      <c r="F32" s="13">
+        <v>51000</v>
+      </c>
+      <c r="G32" s="13">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>6000</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="13">
+        <v>70000</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>83.58</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4238199999999998E-2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>8000</v>
+      </c>
+      <c r="G34" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="13">
+        <v>32324</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>38.594856</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1192508239999999E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1089000</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>1300.2660000000001</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37707714000000003</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45000</v>
+      </c>
+      <c r="G36" s="13">
+        <v>137</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>10500</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>12000</v>
+      </c>
+      <c r="G39" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="13">
+        <v>170803</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>203.938782</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="1"/>
+        <v>5.9142246780000005E-2</v>
+      </c>
+      <c r="F40" s="13">
+        <v>16584</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1.21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="13">
+        <v>157680</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
+        <v>188.26992000000001</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="1"/>
+        <v>5.4598276800000005E-2</v>
+      </c>
+      <c r="F41" s="13">
+        <v>5256</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="13">
+        <v>451607</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>539.21875799999998</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="1"/>
+        <v>0.15637343981999999</v>
+      </c>
+      <c r="F42" s="13">
+        <v>15054</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>20000</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="13">
+        <v>113897</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="0"/>
+        <v>135.99301800000001</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9437975220000004E-2</v>
+      </c>
+      <c r="F44" s="13">
+        <v>3797</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="13">
+        <v>222350</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>265.48590000000002</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="1"/>
+        <v>7.6990911000000009E-2</v>
+      </c>
+      <c r="F45" s="13">
+        <v>21300</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="13">
+        <v>135752</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>162.08788799999999</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="1"/>
+        <v>4.700548752E-2</v>
+      </c>
+      <c r="F46" s="13">
+        <v>4525</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="13">
+        <v>208788</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>249.29287199999999</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="1"/>
+        <v>7.2294932879999996E-2</v>
+      </c>
+      <c r="F47" s="13">
+        <v>4000</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="13">
+        <v>300000</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>358.2</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="1"/>
+        <v>0.103878</v>
+      </c>
+      <c r="F48" s="13">
+        <v>24500</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>2550</v>
+      </c>
+      <c r="G49" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="13">
+        <v>3800</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="0"/>
+        <v>4.5372000000000003</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="1"/>
+        <v>1.315788E-3</v>
+      </c>
+      <c r="F50" s="13">
+        <v>10850</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>22500</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="13">
+        <v>695830</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="0"/>
+        <v>830.82101999999998</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2409380958</v>
+      </c>
+      <c r="F52" s="13">
+        <v>18324</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="13">
+        <v>226350</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>270.26190000000003</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="1"/>
+        <v>7.8375951000000013E-2</v>
+      </c>
+      <c r="F53" s="13">
+        <v>7545</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="13">
+        <v>175000</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
+        <v>208.95</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="1"/>
+        <v>6.0595499999999997E-2</v>
+      </c>
+      <c r="F54" s="13">
+        <v>15120</v>
+      </c>
+      <c r="G54" s="13">
+        <v>7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="13">
+        <v>68432</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="0"/>
+        <v>81.707808</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="1"/>
+        <v>2.3695264319999999E-2</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2281</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="13">
+        <v>170000</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="0"/>
+        <v>202.98</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="1"/>
+        <v>5.8864199999999998E-2</v>
+      </c>
+      <c r="F56" s="13">
+        <v>14800</v>
+      </c>
+      <c r="G56" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>7500</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="13">
+        <v>982600</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="0"/>
+        <v>1173.2244000000001</v>
+      </c>
+      <c r="E58" s="15">
+        <f t="shared" si="1"/>
+        <v>0.34023507600000003</v>
+      </c>
+      <c r="F58" s="13">
+        <v>120660</v>
+      </c>
+      <c r="G58" s="13">
+        <v>63.33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" location="!/vizhome/NorthAmericaDistrictEnergySystemMap_Web/DistrictEnergySystems" display="https://public.tableau.com/profile/paige.davis - !/vizhome/NorthAmericaDistrictEnergySystemMap_Web/DistrictEnergySystems" xr:uid="{3F189DAD-BDB8-4014-B248-55D4D64BDEF5}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{3CA3C302-7299-429C-925A-D11B226A3AAA}"/>
+    <hyperlink ref="I32" r:id="rId3" xr:uid="{023AE55B-2F1F-4CE8-A87B-4B988167C7C3}"/>
+    <hyperlink ref="I17" r:id="rId4" xr:uid="{04C63077-015F-48BA-A760-5345CAA5DFF2}"/>
+    <hyperlink ref="I18" r:id="rId5" xr:uid="{7BA5E7F1-A324-443D-98F4-2D98C3589A89}"/>
+    <hyperlink ref="I22" r:id="rId6" xr:uid="{880D21A6-3C29-4918-83F5-FD36A468B294}"/>
+    <hyperlink ref="I23" r:id="rId7" xr:uid="{E91D30A5-4180-4190-B4F3-7B4038182258}"/>
+    <hyperlink ref="I31" r:id="rId8" xr:uid="{9214FB66-CC30-4200-B430-79C0956AF97F}"/>
+    <hyperlink ref="I29" r:id="rId9" xr:uid="{02F05611-4E2B-4A4C-B5E0-CA70E462ED5A}"/>
+    <hyperlink ref="I36" r:id="rId10" xr:uid="{66DCA6FC-7566-4B67-906D-F00CCF3F478C}"/>
+    <hyperlink ref="I34" r:id="rId11" xr:uid="{D3BC670E-A631-44A1-B9F7-2D06D2E0C209}"/>
+    <hyperlink ref="I35" r:id="rId12" xr:uid="{3BE8DEF6-B9B9-4040-86FD-0DB2F9B236D5}"/>
+    <hyperlink ref="I54" r:id="rId13" xr:uid="{3D58F714-84E8-4177-BD26-35D1FCA9BFD1}"/>
+    <hyperlink ref="I40" r:id="rId14" xr:uid="{307AE84C-3547-4A50-9815-1AC0AD45A7EC}"/>
+    <hyperlink ref="I49" r:id="rId15" xr:uid="{820C5E80-8071-4751-BECF-A232637D679F}"/>
+    <hyperlink ref="I56" r:id="rId16" xr:uid="{F402E5CE-F848-46DC-AA27-BF8A59F9B5A0}"/>
+    <hyperlink ref="I58" r:id="rId17" xr:uid="{22E2E1B6-F257-48E7-B15D-41A6EE422950}"/>
+    <hyperlink ref="I48" r:id="rId18" xr:uid="{A052F41D-C781-4606-B168-8ED9978D2D42}"/>
+    <hyperlink ref="I45" r:id="rId19" xr:uid="{9DC2856A-4002-4D5D-AA6B-3AD44579E4B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +2713,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1218,603 +2861,599 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="10">
-        <f>Data!D11</f>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:R11" si="1">$B3</f>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>0.17030120384160674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="10">
-        <f>Data!D10</f>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
+        <v>0.95</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0.63892242256425869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="10">
-        <f>Data!D13</f>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
+        <v>0.05</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0.15686581716538556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="10">
-        <f>Data!D12</f>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>3.3910556428748871E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2406,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>

--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF06C34C-4F2B-4AB0-B535-3C4FC97942F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49275" yWindow="555" windowWidth="16455" windowHeight="14055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Data" sheetId="4" r:id="rId3"/>
-    <sheet name="BFoHPbF" sheetId="3" r:id="rId4"/>
+    <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Source:</t>
   </si>
@@ -134,286 +133,23 @@
     <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t>Convert from steam PPH to heating GWth</t>
-  </si>
-  <si>
-    <t>https://portfoliomanager.zendesk.com/hc/en-us/articles/211697437-How-do-I-enter-District-Steam-that-has-been-billed-in-pounds-</t>
-  </si>
-  <si>
-    <t>The International District Energy Assocation maintains good data about the location, size, and attributes of district energy systems across the U.S.</t>
-  </si>
-  <si>
-    <t>https://public.tableau.com/profile/paige.davis#!/vizhome/NorthAmericaDistrictEnergySystemMap_Web/DistrictEnergySystems</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Heating (pph)</t>
-  </si>
-  <si>
-    <t>Heating (mmBtu/hr)</t>
-  </si>
-  <si>
-    <t>Heating (GWth)</t>
-  </si>
-  <si>
-    <t>Cooling (tons)</t>
-  </si>
-  <si>
-    <t>CHP (MW)</t>
-  </si>
-  <si>
-    <t>University of Texas El Paso</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>El Paso Community College Transmountain</t>
-  </si>
-  <si>
-    <t>Texas Tech University</t>
-  </si>
-  <si>
-    <t>O'Hair Shutters</t>
-  </si>
-  <si>
-    <t>Airport/Industrial</t>
-  </si>
-  <si>
-    <t>Midwestern State University</t>
-  </si>
-  <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>Tarleton State University</t>
-  </si>
-  <si>
-    <t>University of Texas Arlington</t>
-  </si>
-  <si>
-    <t>Dallas-Fort Worth International Airport</t>
-  </si>
-  <si>
-    <t>North Lake College</t>
-  </si>
-  <si>
-    <t>University of Texas Dallas</t>
-  </si>
-  <si>
-    <t>Richland College</t>
-  </si>
-  <si>
-    <t>Southern Methodist University</t>
-  </si>
-  <si>
-    <t>Parkland Hospital</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>University of Texas Southwestern Medical Center</t>
-  </si>
-  <si>
-    <t>McLennan Community College</t>
-  </si>
-  <si>
-    <t>Baylor University</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austin Energy </t>
-  </si>
-  <si>
-    <t>Downtown</t>
-  </si>
-  <si>
-    <t>Austin Energy Mueller Dell Childrens Hospital</t>
-  </si>
-  <si>
-    <t>Austin State Hospital</t>
-  </si>
-  <si>
-    <t>University of Texas at Austin</t>
-  </si>
-  <si>
-    <t>Austin Energy</t>
-  </si>
-  <si>
-    <t>Texas State University</t>
-  </si>
-  <si>
-    <t>St. Philips College</t>
-  </si>
-  <si>
-    <t>San Antonio College</t>
-  </si>
-  <si>
-    <t>San Antonio Water System</t>
-  </si>
-  <si>
-    <t>St. Mary's University</t>
-  </si>
-  <si>
-    <t>University of Texas Health Science Center San Antonio</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University Kingsville</t>
-  </si>
-  <si>
-    <t>Lamar University</t>
-  </si>
-  <si>
-    <t>University of Texas Medical Branch Galveston</t>
-  </si>
-  <si>
-    <t>BP's Helio Plaza</t>
-  </si>
-  <si>
-    <t>Veolia Energy NA Houston</t>
-  </si>
-  <si>
-    <t>Enwave Houston</t>
-  </si>
-  <si>
-    <t>Crescent Real Estate</t>
-  </si>
-  <si>
-    <t>University of Houston</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>Baylor College of Medicine</t>
-  </si>
-  <si>
-    <t>Methodist Hospital</t>
-  </si>
-  <si>
-    <t>University of Texas MD Anderson Cancer Center</t>
-  </si>
-  <si>
-    <t>Thermal Energy Corporation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The following </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> data is copied from the "Texas Data" tab of the "BFoHfC" spreadsheet</t>
-    </r>
-  </si>
-  <si>
-    <t>District Heating Fuel Type</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>https://utilities.tamu.edu/combined-heat-power/</t>
-  </si>
-  <si>
-    <t>https://www.depts.ttu.edu/utilities/chacp/</t>
-  </si>
-  <si>
-    <t>http://www.chptap.org/Data/projects/OHair_Shutters-Project_Profile.pdf</t>
-  </si>
-  <si>
-    <t>https://sustainability.uta.edu/campus-initiatives/carbon-management/</t>
-  </si>
-  <si>
-    <t>http://oaktrust.library.tamu.edu/bitstream/handle/1969.1/128828/ESL-IC-11-10-43.pdf;sequence=1</t>
-  </si>
-  <si>
-    <t>natural gas / biogas</t>
-  </si>
-  <si>
-    <t>http://globalenergyobservatory.org/geoid/2272</t>
-  </si>
-  <si>
-    <t>https://www.districtenergy.org/HigherLogic/System/DownloadDocumentFile.ashx?DocumentFileKey=462d3fa4-1d96-01d1-ebab-69d75f9d4011&amp;forceDialog=0</t>
-  </si>
-  <si>
-    <t>https://www.burnsmcd.com/insightsnews/in-the-news/2010/05/new-parkland-hospital-central-utility-plant-desi__</t>
-  </si>
-  <si>
-    <t>https://www.texastribune.org/2016/11/23/ut-austin-keeps-getting-bigger-its-energy-bills-an/</t>
-  </si>
-  <si>
-    <t>http://www.chptap.org/Data/projects/Dell_Childrens_Medical_Center-Project_Profile.pdf</t>
-  </si>
-  <si>
-    <t>https://archive.epa.gov/region1/healthcare/web/pdf/ushospitalguidebook_111907.pdf</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/opendata/qb.php?category=4527</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/opendata/qb.php?category=4651</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/opendata/qb.php?category=1366474</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/opendata/qb.php?category=1232946</t>
-  </si>
-  <si>
-    <t>https://tecothermalenergy.com/news/houston-based-teco-wins-us-epas-energy-star-chp-award/</t>
-  </si>
-  <si>
-    <t>http://www.chptap.org/Data/projects/UTMB-Project_Profile.pdf</t>
-  </si>
-  <si>
-    <t>http://uthscsa.edu/facilities/energymgmt.asp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was able to find fuel information for over half of the district heating systems in Texas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of these sytems use natural gas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFW airport does use some biogas. </t>
-  </si>
-  <si>
-    <t>So, my assumption is to use 95% natural gas, 5% biogas for the model.</t>
+    <t>Note on Heat Pumps</t>
+  </si>
+  <si>
+    <t>The "electricity" fuel type represents heat pumps.</t>
+  </si>
+  <si>
+    <t>This can be changed by altering dist-heat/EoCtUH.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,19 +169,6 @@
       <u/>
       <sz val="10"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,7 +204,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,10 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -846,23 +565,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.1328125" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,59 +587,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -938,19 +670,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -962,7 +692,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2000</v>
       </c>
@@ -985,7 +715,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +741,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +767,7 @@
         <v>12343.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +793,7 @@
         <v>199.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +819,7 @@
         <v>4055.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +845,7 @@
         <v>2641.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +873,7 @@
         <v>0.63892242256425869</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +890,7 @@
         <v>0.17030120384160674</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +907,7 @@
         <v>3.3910556428748871E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +924,7 @@
         <v>0.15686581716538556</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1213,1394 +943,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E7DB56-2C80-4F30-997F-1BA05DB0D952}">
-  <dimension ref="A1:I58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="2" max="2" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="13">
-        <v>54000</v>
-      </c>
-      <c r="D15" s="13">
-        <f>C15*1194/1000000</f>
-        <v>64.475999999999999</v>
-      </c>
-      <c r="E15" s="15">
-        <f>D15*0.00029</f>
-        <v>1.8698039999999999E-2</v>
-      </c>
-      <c r="F15" s="13">
-        <v>4600</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="13">
-        <v>570960</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" ref="D16:D58" si="0">C16*1194/1000000</f>
-        <v>681.72623999999996</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" ref="E16:E58" si="1">D16*0.00029</f>
-        <v>0.19770060959999999</v>
-      </c>
-      <c r="F16" s="13">
-        <v>19032</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="13">
-        <v>500000</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="0"/>
-        <v>597</v>
-      </c>
-      <c r="E17" s="15">
-        <f t="shared" si="1"/>
-        <v>0.17313000000000001</v>
-      </c>
-      <c r="F17" s="13">
-        <v>20000</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="13">
-        <v>120546</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="0"/>
-        <v>143.93192400000001</v>
-      </c>
-      <c r="E19" s="15">
-        <f t="shared" si="1"/>
-        <v>4.1740257960000006E-2</v>
-      </c>
-      <c r="F19" s="13">
-        <v>4018</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="13">
-        <v>164588</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" si="0"/>
-        <v>196.51807199999999</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="1"/>
-        <v>5.6990240879999994E-2</v>
-      </c>
-      <c r="F20" s="13">
-        <v>5486</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="13">
-        <v>178218</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="0"/>
-        <v>212.792292</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
-        <v>6.1709764680000001E-2</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13">
-        <v>549110</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" si="0"/>
-        <v>655.63733999999999</v>
-      </c>
-      <c r="E22" s="15">
-        <f t="shared" si="1"/>
-        <v>0.1901348286</v>
-      </c>
-      <c r="F22" s="13">
-        <v>18303</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="13">
-        <v>495000</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="0"/>
-        <v>591.03</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="1"/>
-        <v>0.17139869999999999</v>
-      </c>
-      <c r="F23" s="13">
-        <v>22000</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="13">
-        <v>137970</v>
-      </c>
-      <c r="D24" s="13">
-        <f t="shared" si="0"/>
-        <v>164.73617999999999</v>
-      </c>
-      <c r="E24" s="15">
-        <f t="shared" si="1"/>
-        <v>4.7773492199999996E-2</v>
-      </c>
-      <c r="F24" s="13">
-        <v>4599</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="13">
-        <v>4577</v>
-      </c>
-      <c r="D25" s="13">
-        <f t="shared" si="0"/>
-        <v>5.4649380000000001</v>
-      </c>
-      <c r="E25" s="15">
-        <f t="shared" si="1"/>
-        <v>1.5848320200000001E-3</v>
-      </c>
-      <c r="F25" s="13">
-        <v>12500</v>
-      </c>
-      <c r="G25" s="13">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="13">
-        <v>135315</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="0"/>
-        <v>161.56611000000001</v>
-      </c>
-      <c r="E26" s="15">
-        <f t="shared" si="1"/>
-        <v>4.6854171900000005E-2</v>
-      </c>
-      <c r="F26" s="13">
-        <v>4510</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="13">
-        <v>190000</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="0"/>
-        <v>226.86</v>
-      </c>
-      <c r="E27" s="15">
-        <f t="shared" si="1"/>
-        <v>6.5789399999999998E-2</v>
-      </c>
-      <c r="F27" s="13">
-        <v>12000</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="13">
-        <v>230000</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="0"/>
-        <v>274.62</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="1"/>
-        <v>7.9639799999999997E-2</v>
-      </c>
-      <c r="F28" s="13">
-        <v>16500</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="13">
-        <v>87300</v>
-      </c>
-      <c r="D29" s="13">
-        <f t="shared" si="0"/>
-        <v>104.2362</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0228497999999999E-2</v>
-      </c>
-      <c r="F29" s="13">
-        <v>2800</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="13">
-        <v>94575</v>
-      </c>
-      <c r="D30" s="13">
-        <f t="shared" si="0"/>
-        <v>112.92255</v>
-      </c>
-      <c r="E30" s="15">
-        <f t="shared" si="1"/>
-        <v>3.2747539499999999E-2</v>
-      </c>
-      <c r="F30" s="13">
-        <v>3153</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="13">
-        <v>217273</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="0"/>
-        <v>259.42396200000002</v>
-      </c>
-      <c r="E31" s="15">
-        <f t="shared" si="1"/>
-        <v>7.5232948980000006E-2</v>
-      </c>
-      <c r="F31" s="13">
-        <v>7242</v>
-      </c>
-      <c r="G31" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="13">
-        <v>824298</v>
-      </c>
-      <c r="D32" s="13">
-        <f t="shared" si="0"/>
-        <v>984.21181200000001</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="1"/>
-        <v>0.28542142547999999</v>
-      </c>
-      <c r="F32" s="13">
-        <v>51000</v>
-      </c>
-      <c r="G32" s="13">
-        <v>50</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>6000</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="13">
-        <v>70000</v>
-      </c>
-      <c r="D34" s="13">
-        <f t="shared" si="0"/>
-        <v>83.58</v>
-      </c>
-      <c r="E34" s="15">
-        <f t="shared" si="1"/>
-        <v>2.4238199999999998E-2</v>
-      </c>
-      <c r="F34" s="13">
-        <v>8000</v>
-      </c>
-      <c r="G34" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="13">
-        <v>32324</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" si="0"/>
-        <v>38.594856</v>
-      </c>
-      <c r="E35" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1192508239999999E-2</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1089000</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="0"/>
-        <v>1300.2660000000001</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="1"/>
-        <v>0.37707714000000003</v>
-      </c>
-      <c r="F36" s="13">
-        <v>45000</v>
-      </c>
-      <c r="G36" s="13">
-        <v>137</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <v>10500</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0</v>
-      </c>
-      <c r="D39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
-        <v>12000</v>
-      </c>
-      <c r="G39" s="13">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="13">
-        <v>170803</v>
-      </c>
-      <c r="D40" s="13">
-        <f t="shared" si="0"/>
-        <v>203.938782</v>
-      </c>
-      <c r="E40" s="15">
-        <f t="shared" si="1"/>
-        <v>5.9142246780000005E-2</v>
-      </c>
-      <c r="F40" s="13">
-        <v>16584</v>
-      </c>
-      <c r="G40" s="13">
-        <v>1.21</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="13">
-        <v>157680</v>
-      </c>
-      <c r="D41" s="13">
-        <f t="shared" si="0"/>
-        <v>188.26992000000001</v>
-      </c>
-      <c r="E41" s="15">
-        <f t="shared" si="1"/>
-        <v>5.4598276800000005E-2</v>
-      </c>
-      <c r="F41" s="13">
-        <v>5256</v>
-      </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="13">
-        <v>451607</v>
-      </c>
-      <c r="D42" s="13">
-        <f t="shared" si="0"/>
-        <v>539.21875799999998</v>
-      </c>
-      <c r="E42" s="15">
-        <f t="shared" si="1"/>
-        <v>0.15637343981999999</v>
-      </c>
-      <c r="F42" s="13">
-        <v>15054</v>
-      </c>
-      <c r="G42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="13">
-        <v>0</v>
-      </c>
-      <c r="D43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>20000</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="13">
-        <v>113897</v>
-      </c>
-      <c r="D44" s="13">
-        <f t="shared" si="0"/>
-        <v>135.99301800000001</v>
-      </c>
-      <c r="E44" s="15">
-        <f t="shared" si="1"/>
-        <v>3.9437975220000004E-2</v>
-      </c>
-      <c r="F44" s="13">
-        <v>3797</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="13">
-        <v>222350</v>
-      </c>
-      <c r="D45" s="13">
-        <f t="shared" si="0"/>
-        <v>265.48590000000002</v>
-      </c>
-      <c r="E45" s="15">
-        <f t="shared" si="1"/>
-        <v>7.6990911000000009E-2</v>
-      </c>
-      <c r="F45" s="13">
-        <v>21300</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="13">
-        <v>135752</v>
-      </c>
-      <c r="D46" s="13">
-        <f t="shared" si="0"/>
-        <v>162.08788799999999</v>
-      </c>
-      <c r="E46" s="15">
-        <f t="shared" si="1"/>
-        <v>4.700548752E-2</v>
-      </c>
-      <c r="F46" s="13">
-        <v>4525</v>
-      </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="13">
-        <v>208788</v>
-      </c>
-      <c r="D47" s="13">
-        <f t="shared" si="0"/>
-        <v>249.29287199999999</v>
-      </c>
-      <c r="E47" s="15">
-        <f t="shared" si="1"/>
-        <v>7.2294932879999996E-2</v>
-      </c>
-      <c r="F47" s="13">
-        <v>4000</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="13">
-        <v>300000</v>
-      </c>
-      <c r="D48" s="13">
-        <f t="shared" si="0"/>
-        <v>358.2</v>
-      </c>
-      <c r="E48" s="15">
-        <f t="shared" si="1"/>
-        <v>0.103878</v>
-      </c>
-      <c r="F48" s="13">
-        <v>24500</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0</v>
-      </c>
-      <c r="D49" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
-        <v>2550</v>
-      </c>
-      <c r="G49" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="13">
-        <v>3800</v>
-      </c>
-      <c r="D50" s="13">
-        <f t="shared" si="0"/>
-        <v>4.5372000000000003</v>
-      </c>
-      <c r="E50" s="15">
-        <f t="shared" si="1"/>
-        <v>1.315788E-3</v>
-      </c>
-      <c r="F50" s="13">
-        <v>10850</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="13">
-        <v>0</v>
-      </c>
-      <c r="D51" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
-        <v>22500</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="13">
-        <v>695830</v>
-      </c>
-      <c r="D52" s="13">
-        <f t="shared" si="0"/>
-        <v>830.82101999999998</v>
-      </c>
-      <c r="E52" s="15">
-        <f t="shared" si="1"/>
-        <v>0.2409380958</v>
-      </c>
-      <c r="F52" s="13">
-        <v>18324</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="13">
-        <v>226350</v>
-      </c>
-      <c r="D53" s="13">
-        <f t="shared" si="0"/>
-        <v>270.26190000000003</v>
-      </c>
-      <c r="E53" s="15">
-        <f t="shared" si="1"/>
-        <v>7.8375951000000013E-2</v>
-      </c>
-      <c r="F53" s="13">
-        <v>7545</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="13">
-        <v>175000</v>
-      </c>
-      <c r="D54" s="13">
-        <f t="shared" si="0"/>
-        <v>208.95</v>
-      </c>
-      <c r="E54" s="15">
-        <f t="shared" si="1"/>
-        <v>6.0595499999999997E-2</v>
-      </c>
-      <c r="F54" s="13">
-        <v>15120</v>
-      </c>
-      <c r="G54" s="13">
-        <v>7</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="13">
-        <v>68432</v>
-      </c>
-      <c r="D55" s="13">
-        <f t="shared" si="0"/>
-        <v>81.707808</v>
-      </c>
-      <c r="E55" s="15">
-        <f t="shared" si="1"/>
-        <v>2.3695264319999999E-2</v>
-      </c>
-      <c r="F55" s="13">
-        <v>2281</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="13">
-        <v>170000</v>
-      </c>
-      <c r="D56" s="13">
-        <f t="shared" si="0"/>
-        <v>202.98</v>
-      </c>
-      <c r="E56" s="15">
-        <f t="shared" si="1"/>
-        <v>5.8864199999999998E-2</v>
-      </c>
-      <c r="F56" s="13">
-        <v>14800</v>
-      </c>
-      <c r="G56" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="H56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="13">
-        <v>0</v>
-      </c>
-      <c r="D57" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
-        <v>7500</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="13">
-        <v>982600</v>
-      </c>
-      <c r="D58" s="13">
-        <f t="shared" si="0"/>
-        <v>1173.2244000000001</v>
-      </c>
-      <c r="E58" s="15">
-        <f t="shared" si="1"/>
-        <v>0.34023507600000003</v>
-      </c>
-      <c r="F58" s="13">
-        <v>120660</v>
-      </c>
-      <c r="G58" s="13">
-        <v>63.33</v>
-      </c>
-      <c r="H58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" location="!/vizhome/NorthAmericaDistrictEnergySystemMap_Web/DistrictEnergySystems" display="https://public.tableau.com/profile/paige.davis - !/vizhome/NorthAmericaDistrictEnergySystemMap_Web/DistrictEnergySystems" xr:uid="{3F189DAD-BDB8-4014-B248-55D4D64BDEF5}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{3CA3C302-7299-429C-925A-D11B226A3AAA}"/>
-    <hyperlink ref="I32" r:id="rId3" xr:uid="{023AE55B-2F1F-4CE8-A87B-4B988167C7C3}"/>
-    <hyperlink ref="I17" r:id="rId4" xr:uid="{04C63077-015F-48BA-A760-5345CAA5DFF2}"/>
-    <hyperlink ref="I18" r:id="rId5" xr:uid="{7BA5E7F1-A324-443D-98F4-2D98C3589A89}"/>
-    <hyperlink ref="I22" r:id="rId6" xr:uid="{880D21A6-3C29-4918-83F5-FD36A468B294}"/>
-    <hyperlink ref="I23" r:id="rId7" xr:uid="{E91D30A5-4180-4190-B4F3-7B4038182258}"/>
-    <hyperlink ref="I31" r:id="rId8" xr:uid="{9214FB66-CC30-4200-B430-79C0956AF97F}"/>
-    <hyperlink ref="I29" r:id="rId9" xr:uid="{02F05611-4E2B-4A4C-B5E0-CA70E462ED5A}"/>
-    <hyperlink ref="I36" r:id="rId10" xr:uid="{66DCA6FC-7566-4B67-906D-F00CCF3F478C}"/>
-    <hyperlink ref="I34" r:id="rId11" xr:uid="{D3BC670E-A631-44A1-B9F7-2D06D2E0C209}"/>
-    <hyperlink ref="I35" r:id="rId12" xr:uid="{3BE8DEF6-B9B9-4040-86FD-0DB2F9B236D5}"/>
-    <hyperlink ref="I54" r:id="rId13" xr:uid="{3D58F714-84E8-4177-BD26-35D1FCA9BFD1}"/>
-    <hyperlink ref="I40" r:id="rId14" xr:uid="{307AE84C-3547-4A50-9815-1AC0AD45A7EC}"/>
-    <hyperlink ref="I49" r:id="rId15" xr:uid="{820C5E80-8071-4751-BECF-A232637D679F}"/>
-    <hyperlink ref="I56" r:id="rId16" xr:uid="{F402E5CE-F848-46DC-AA27-BF8A59F9B5A0}"/>
-    <hyperlink ref="I58" r:id="rId17" xr:uid="{22E2E1B6-F257-48E7-B15D-41A6EE422950}"/>
-    <hyperlink ref="I48" r:id="rId18" xr:uid="{A052F41D-C781-4606-B168-8ED9978D2D42}"/>
-    <hyperlink ref="I45" r:id="rId19" xr:uid="{9DC2856A-4002-4D5D-AA6B-3AD44579E4B8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -2713,7 +1070,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2861,599 +1218,603 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="10">
-        <v>0</v>
+        <f>Data!D11</f>
+        <v>0.17030120384160674</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:R11" si="1">$B3</f>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0.17030120384160674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="10">
-        <v>0.95</v>
+        <f>Data!D10</f>
+        <v>0.63892242256425869</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0.63892242256425869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="10">
-        <v>0.05</v>
+        <f>Data!D13</f>
+        <v>0.15686581716538556</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0.15686581716538556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="10">
-        <v>0</v>
+        <f>Data!D12</f>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+        <v>3.3910556428748871E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3601,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3749,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3897,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -4045,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
